--- a/reverseprimer-v3_37.xlsx
+++ b/reverseprimer-v3_37.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_37" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R3457-ACATCTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCTCAAGGTCTCGTGGGCTCGG</t>
+    <t>R3457-TTGTGATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTGATCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R3458-CATCCTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCCTCAACGTCTCGTGGGCTCGG</t>
+    <t>R3458-TGTACCTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTACCTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R3459-TGTGAACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGAACAACGTCTCGTGGGCTCGG</t>
+    <t>R3459-GATGAGCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGAGCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R3460-GAGTAGAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTAGAGTCGTCTCGTGGGCTCGG</t>
+    <t>R3460-AAGTCAGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCAGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R3461-ATCTGACCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTGACCTAGTCTCGTGGGCTCGG</t>
+    <t>R3461-GATCATGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCATGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R3462-CGACCTTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGACCTTGATGTCTCGTGGGCTCGG</t>
+    <t>R3462-ACGTTGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTTGTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R3463-TGAGATCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGATCCTTGTCTCGTGGGCTCGG</t>
+    <t>R3463-GACTGTCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGTCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R3464-CAGTAGGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTAGGTGAGTCTCGTGGGCTCGG</t>
+    <t>R3464-ATGTACCTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTACCTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R3465-TCTGATCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGATCCTAGTCTCGTGGGCTCGG</t>
+    <t>R3465-ACGTGATCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTGATCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R3466-GATGCTGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGCTGCTTGTCTCGTGGGCTCGG</t>
+    <t>R3466-GAACACCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACACCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R3467-TCACATGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACATGCACGTCTCGTGGGCTCGG</t>
+    <t>R3467-GTCAGTTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAGTTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R3468-AGCAGTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAGTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R3468-TGATGTCTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATGTCTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R3469-AACTCTCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCTCTACGTCTCGTGGGCTCGG</t>
+    <t>R3469-CTCTCATGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTCATGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R3470-ACTGTGGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGTGGACTGTCTCGTGGGCTCGG</t>
+    <t>R3470-TGTCGAACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCGAACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R3471-TGGTGATGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTGATGACGTCTCGTGGGCTCGG</t>
+    <t>R3471-GATCCTCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCCTCGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R3472-ACAGTACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTACACAGTCTCGTGGGCTCGG</t>
+    <t>R3472-GTTGTGTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R3473-GTTCGAAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCGAAGACGTCTCGTGGGCTCGG</t>
+    <t>R3473-AAGTCTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCTCCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R3474-GGTGTTCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGTTCTCAGTCTCGTGGGCTCGG</t>
+    <t>R3474-CTAGCAGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGCAGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R3475-TGTGACAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGACAGGTGTCTCGTGGGCTCGG</t>
+    <t>R3475-ATCAGAGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGAGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R3476-TCTTCATCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTCATCGAGTCTCGTGGGCTCGG</t>
+    <t>R3476-GCTGTTCGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGTTCGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R3477-GTGAACAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAACAACAGTCTCGTGGGCTCGG</t>
+    <t>R3477-ATGACACACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACACACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R3478-CAACAGTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACAGTGTCGTCTCGTGGGCTCGG</t>
+    <t>R3478-TTCGAAGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGAAGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R3479-TTCTCAACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTCAACAGGTCTCGTGGGCTCGG</t>
+    <t>R3479-AGCTCACATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTCACATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R3480-CATCCTTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCCTTGTCGTCTCGTGGGCTCGG</t>
+    <t>R3480-TCACTGCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTGCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R3481-TCTGAGTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGAGTAGTGTCTCGTGGGCTCGG</t>
+    <t>R3481-TACAGGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGGACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R3482-GAAGGTTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGGTTCTAGTCTCGTGGGCTCGG</t>
+    <t>R3482-AGTACGACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACGACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R3483-CAACTCGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTCGTTGGTCTCGTGGGCTCGG</t>
+    <t>R3483-GAAGTTGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTTGAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R3484-ACCTAGTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTAGTGCTGTCTCGTGGGCTCGG</t>
+    <t>R3484-AAGATGCAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGATGCAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R3485-TGTACCACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTACCACAGGTCTCGTGGGCTCGG</t>
+    <t>R3485-GGACTTGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGACTTGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R3486-GTCAAGAACC</t>
+    <t>R3486-AACCTCTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTCTAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R3487-GATCAACTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCAACTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R3488-ACAACGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACGATCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R3489-GGAAGAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAAGAGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R3490-CAAGAGCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGCAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R3491-TTGGATCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGATCCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R3492-AGAGCTCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTCGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R3493-TGATCCAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATCCAGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R3494-GTGTCTACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTACTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R3495-ATCTACGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTACGTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R3496-AACGTCTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTCTGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R3497-TCTCTACTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTACTGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R3498-TCACGACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACGACTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R3499-TCCAAGGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAAGGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R3500-CCTAGAACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTAGAACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R3501-TTCCAAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCAAGTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R3502-ACCTACTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTACTCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R3503-CAACGTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACGTCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R3504-AAGAGCTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGCTGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R3505-TGAGTAGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTAGGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R3506-GGATGAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATGAGGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R3507-ACAGATCACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGATCACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R3508-ACGTAGTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTAGTAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R3509-GATCAGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCAGAAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R3510-TGACAGTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACAGTGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R3511-AGCACAGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCACAGGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R3512-AAGCTGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTGACAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R3513-CTGAAGTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAAGTCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R3514-GGATCAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATCAGCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R3515-TTCACGAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCACGAAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R3516-GAGCACTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGCACTAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R3517-TCGTCACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTCACGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R3518-GGATGGTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATGGTTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R3519-CTACTGGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTGGATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R3520-CTTCACACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCACACCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R3521-TGGTTCTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTTCTGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R3522-GAAGGATGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGGATGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R3523-GTGTAGTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTAGTTGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R3524-TGTCGTGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCGTGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R3525-ACCTGTGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTGTGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R3526-ATGGATGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGATGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R3527-TGGTAGATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTAGATGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R3528-CTACAGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACAGTACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R3529-ACTCAGACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCAGACAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R3530-GCAGAACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAGAACCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R3531-GAGGTACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGGTACAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R3532-TACAGTCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGTCCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R3533-AACCAACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAACAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R3534-TCCTGTACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTGTACTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R3535-CTCTAGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTAGAAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R3536-TACTGGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTGGATCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R3537-ACATGCAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGCAGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R3538-CCTTCAAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCAAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R3539-AGATGGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGGTCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R3540-TACATGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACATGAAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R3541-TCTCTTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTTCCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>R3542-ATGGAACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGAACAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>R3543-GTCAAGAACC</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATGTCAAGAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R3487-CAGATGTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGATGTCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R3488-GAGACAACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGACAACCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R3489-CTGTAGTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTAGTGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R3490-ACCTGAACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTGAACAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R3491-ATCCTAGCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTAGCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R3492-TTGAGGTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAGGTTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R3493-ACATCTCCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCTCCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R3494-GATGGTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGGTCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R3495-GGTTGTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTGTCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R3496-GTCGACTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCGACTACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R3497-AGACCTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACCTCTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R3498-TGAACGTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACGTGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R3499-TTCTCACAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTCACAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R3500-TTCAGGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAGGAGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R3501-AGTCACTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCACTACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R3502-AGTTCTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCTCTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R3503-GGTAGTAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTAGTAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R3504-ACTCATCCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCATCCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R3505-GTAGCTCGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTCGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R3506-AACTGACCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGACCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R3507-AAGACATGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACATGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R3508-TCCTCTCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTCTCTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R3509-ATCGTCTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTCTTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R3510-GTCAGCAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAGCAACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R3511-TGACCAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACCAGCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R3512-AACAGCACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGCACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R3513-TCACCTAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACCTAGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R3514-TCCAGAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAGAGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R3515-TCGTAGGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTAGGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R3516-AAGTGTTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGTTCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R3517-AGACGTTCGT</t>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>R3544-AACTGTCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGTCTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>R3545-GACTACATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTACATCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>R3546-AGACGTTCGT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATAGACGTTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R3518-TGAAGTTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGTTCCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R3519-TGGATCTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGATCTCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R3520-GAGAGAACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAGAACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R3521-CCATGGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCATGGTTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R3522-ATGGACACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGACACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R3523-TGATGTCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGTCCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R3524-ACAAGCTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGCTCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R3525-GTCACTAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACTAGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R3526-ACACAAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAAGCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R3527-AGATGACGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGACGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R3528-GACGATGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACGATGGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R3529-CTGATCTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGATCTCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R3530-TTGTGAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTGAGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R3531-AGTCCAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCCAGGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R3532-CACATCTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACATCTCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R3533-TCAGACAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGACAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R3534-AACATGTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACATGTGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R3535-TCGAAGTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAAGTACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R3536-CTCTGCAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTGCAGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R3537-TGGTCGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTCGTCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R3538-GAGTGGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGGAAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R3539-TACACTCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACTCTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R3540-CTGTACGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTACGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R3541-ACAAGTCGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGTCGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>R3542-AGGAGACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAGACGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>R3543-GAAGCTCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCTCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>R3544-TGGTTCACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTTCACCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>R3545-GATGGAAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGGAAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>R3546-CTGCTACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGCTACCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R3547-AACTACGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTACGTGTGTCTCGTGGGCTCGG</t>
+    <t>R3547-CTGTAGACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTAGACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R3548-CCTACTGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTACTGTACGTCTCGTGGGCTCGG</t>
+    <t>R3548-CATCGTACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCGTACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R3549-GTGCAAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGCAAGTCAGTCTCGTGGGCTCGG</t>
+    <t>R3549-ACACACGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACACGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R3550-TTCCTCACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTCACTTGTCTCGTGGGCTCGG</t>
+    <t>R3550-ACGAACACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAACACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R3551-CTCTCATGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTCATGCTGTCTCGTGGGCTCGG</t>
+    <t>R3551-ACGTCGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTCGAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R3552-AAGAGCTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGCTGAAGTCTCGTGGGCTCGG</t>
+    <t>R3552-TCGAACAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAACAAGGGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
